--- a/GrocerySupermartApplication_Project/src/test/resources/ProjectTestdata.xlsx
+++ b/GrocerySupermartApplication_Project/src/test/resources/ProjectTestdata.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\GoceryApplication_Repo\GroceryApplicationProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\GroceryApplication_Repo\GrocerySupermartApplication_Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1602A4-6716-4657-90AC-2C314BFE2E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1232107-400E-4630-8EDD-0F863E087DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" xr2:uid="{4E66ABD9-EA7D-46C3-B717-9294E05F4CA7}"/>
+    <workbookView xWindow="1440" yWindow="1008" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{4E66ABD9-EA7D-46C3-B717-9294E05F4CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ManageNewsPage" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageCategoryPage" sheetId="3" r:id="rId3"/>
-    <sheet name="ManageFooterPage" sheetId="5" r:id="rId4"/>
-    <sheet name="AdminUser" sheetId="6" r:id="rId5"/>
-    <sheet name="ManageContact" sheetId="4" r:id="rId6"/>
+    <sheet name="ManageNewsUpdate" sheetId="7" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="2" r:id="rId3"/>
+    <sheet name="ManageCategoryPage" sheetId="3" r:id="rId4"/>
+    <sheet name="ManageFooterPage" sheetId="5" r:id="rId5"/>
+    <sheet name="AdminUser" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageContact" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -119,9 +120,6 @@
     <t>Momos210825085752</t>
   </si>
   <si>
-    <t>Peaches</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -156,6 +154,33 @@
   </si>
   <si>
     <t>banana.juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> admin</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Obsqura</t>
+  </si>
+  <si>
+    <t>HelloWorld</t>
+  </si>
+  <si>
+    <t>pizzaslicess</t>
+  </si>
+  <si>
+    <t>updated news</t>
+  </si>
+  <si>
+    <t>Obsqura TVM</t>
+  </si>
+  <si>
+    <t>Demo Project Supermart</t>
+  </si>
+  <si>
+    <t>HelloWorld INDIA</t>
   </si>
 </sst>
 </file>
@@ -535,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F13169-F8F6-41D4-BD0A-7E8CFBE115C9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +576,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -587,6 +612,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0A22BE-9420-47A4-9791-48E0680378D3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D89369-14DB-4B01-8C05-B87A7EBD7B4F}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -639,11 +715,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112A2E7F-51D5-474E-9D91-00FE5B1516CE}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -652,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -667,17 +745,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7237253-BB7B-4EFF-9DC1-6CEC0352F2DE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -703,21 +781,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
@@ -725,10 +803,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C3">
         <v>2345678901</v>
@@ -743,7 +821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB6668F-E675-434C-BBC4-D953A972ACE9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -763,12 +841,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>123456</v>
@@ -776,7 +854,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>234567</v>
@@ -787,7 +865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CAD22B-3994-4F88-804E-6D9926CA30F4}">
   <dimension ref="A1:E4"/>
   <sheetViews>
